--- a/ExcelMaster/bin/Debug/Аккр.мониторинг.xlsx
+++ b/ExcelMaster/bin/Debug/Аккр.мониторинг.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Направление</t>
   </si>
@@ -32,7 +32,13 @@
     <t>Итог</t>
   </si>
   <si>
+    <t>Составил</t>
+  </si>
+  <si>
     <t>БТС</t>
+  </si>
+  <si>
+    <t>Hells</t>
   </si>
   <si>
     <t>БТС1-120</t>
@@ -81,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -106,10 +112,13 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -126,10 +135,13 @@
       <c r="F2" s="0">
         <v>30</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
